--- a/data/trans_orig/Q5409A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C925B3D-F09C-47C0-BAD8-DA81EF087F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E6CE0E-AFC9-48D6-9326-B0E52DAB4CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A5B8FC9-F117-4B54-83DD-42D25AEFAC9E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{110BAA39-2C0C-4DC1-8014-1C32BAEA760B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="241">
   <si>
     <t>Población según si necesita sonda u otros dispositivos y es capaz de utilizarlos en 2023 (Tasa respuesta: 4,28%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>59,19%</t>
+    <t>46,46%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>4,79%</t>
   </si>
   <si>
-    <t>23,2%</t>
+    <t>21,88%</t>
   </si>
   <si>
     <t>No utilizo sonda u otros dispositivos</t>
@@ -98,7 +98,7 @@
     <t>89,58%</t>
   </si>
   <si>
-    <t>40,81%</t>
+    <t>53,54%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,7 +113,7 @@
     <t>87,86%</t>
   </si>
   <si>
-    <t>62,84%</t>
+    <t>60,59%</t>
   </si>
   <si>
     <t>Sí, por otro</t>
@@ -137,7 +137,7 @@
     <t>7,35%</t>
   </si>
   <si>
-    <t>32,02%</t>
+    <t>37,37%</t>
   </si>
   <si>
     <t>Sí, por sí solo/a</t>
@@ -152,10 +152,10 @@
     <t>10,37%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
   </si>
   <si>
     <t>9,4%</t>
@@ -170,19 +170,19 @@
     <t>9,71%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>58,83%</t>
   </si>
   <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
   </si>
   <si>
     <t>57,03%</t>
@@ -197,10 +197,10 @@
     <t>57,59%</t>
   </si>
   <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -215,16 +215,16 @@
     <t>1,85%</t>
   </si>
   <si>
-    <t>12,19%</t>
+    <t>11,79%</t>
   </si>
   <si>
     <t>15,92%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
   </si>
   <si>
     <t>21,11%</t>
@@ -239,19 +239,19 @@
     <t>19,5%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
   </si>
   <si>
     <t>9,78%</t>
@@ -266,10 +266,10 @@
     <t>11,36%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -278,7 +278,7 @@
     <t>2,81%</t>
   </si>
   <si>
-    <t>15,78%</t>
+    <t>15,26%</t>
   </si>
   <si>
     <t>9,77%</t>
@@ -293,16 +293,19 @@
     <t>7,42%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>36,74%</t>
   </si>
   <si>
-    <t>20,18%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
   </si>
   <si>
     <t>51,62%</t>
@@ -317,10 +320,10 @@
     <t>46,58%</t>
   </si>
   <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -338,19 +341,19 @@
     <t>3,98%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>24,05%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
   </si>
   <si>
     <t>21,38%</t>
@@ -365,19 +368,19 @@
     <t>22,29%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
   </si>
   <si>
     <t>11,21%</t>
@@ -392,10 +395,10 @@
     <t>19,73%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -416,19 +419,19 @@
     <t>11,94%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
   </si>
   <si>
     <t>64,68%</t>
   </si>
   <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
   </si>
   <si>
     <t>66,88%</t>
@@ -443,16 +446,16 @@
     <t>66,05%</t>
   </si>
   <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>17,11%</t>
+    <t>20,8%</t>
   </si>
   <si>
     <t>4,16%</t>
@@ -461,7 +464,7 @@
     <t>1,53%</t>
   </si>
   <si>
-    <t>7,68%</t>
+    <t>7,55%</t>
   </si>
   <si>
     <t>7,12%</t>
@@ -473,16 +476,19 @@
     <t>4,42%</t>
   </si>
   <si>
-    <t>11,64%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>31,28%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
   </si>
   <si>
     <t>6,77%</t>
@@ -497,10 +503,10 @@
     <t>16,06%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -515,19 +521,19 @@
     <t>5,8%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
   </si>
   <si>
     <t>41,2%</t>
@@ -542,19 +548,19 @@
     <t>54,27%</t>
   </si>
   <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
   </si>
   <si>
     <t>50,51%</t>
   </si>
   <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
   </si>
   <si>
     <t>5,16%</t>
@@ -563,40 +569,43 @@
     <t>3,48%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
     <t>21,93%</t>
   </si>
   <si>
     <t>12,22%</t>
   </si>
   <si>
-    <t>22,15%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>5,79%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>49,45%</t>
@@ -611,112 +620,103 @@
     <t>24,23%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>6,16%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>5,37%</t>
   </si>
   <si>
     <t>50,53%</t>
   </si>
   <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
   </si>
   <si>
     <t>57,36%</t>
   </si>
   <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
   </si>
   <si>
     <t>55,12%</t>
   </si>
   <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,85%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>6,92%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>10,69%</t>
+    <t>10,62%</t>
   </si>
   <si>
     <t>20,2%</t>
@@ -725,34 +725,37 @@
     <t>13,29%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>25,97%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1167,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F8A1E7-2852-47DB-8E33-C1DFE845DF93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B912DDDD-EB5C-4180-8F8B-3CCEC7062C0F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1964,7 +1967,7 @@
         <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -1973,13 +1976,13 @@
         <v>17824</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -1988,13 +1991,13 @@
         <v>24312</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,7 +2018,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -2024,13 +2027,13 @@
         <v>2077</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -2039,13 +2042,13 @@
         <v>2077</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,13 +2063,13 @@
         <v>4247</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -2075,13 +2078,13 @@
         <v>7384</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -2090,13 +2093,13 @@
         <v>11631</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,13 +2114,13 @@
         <v>6427</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2126,13 +2129,13 @@
         <v>3872</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -2141,13 +2144,13 @@
         <v>10299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,7 +2206,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2221,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -2230,13 +2233,13 @@
         <v>5529</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -2245,13 +2248,13 @@
         <v>5529</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,13 +2269,13 @@
         <v>11348</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -2281,13 +2284,13 @@
         <v>19228</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -2296,13 +2299,13 @@
         <v>30576</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,13 +2320,13 @@
         <v>709</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2338,7 +2341,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2347,13 +2350,13 @@
         <v>709</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,7 +2377,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2383,13 +2386,13 @@
         <v>2047</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2398,13 +2401,13 @@
         <v>2047</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2422,13 @@
         <v>5487</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2434,13 +2437,13 @@
         <v>1948</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2449,13 +2452,13 @@
         <v>7435</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,7 +2514,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2523,13 +2526,13 @@
         <v>666</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -2538,13 +2541,13 @@
         <v>3427</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -2553,13 +2556,13 @@
         <v>4093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2577,13 @@
         <v>9833</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>52</v>
@@ -2589,13 +2592,13 @@
         <v>32075</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -2604,13 +2607,13 @@
         <v>41908</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,7 +2634,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2640,13 +2643,13 @@
         <v>2059</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2655,13 +2658,13 @@
         <v>2059</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2679,13 @@
         <v>1565</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -2691,13 +2694,13 @@
         <v>7222</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -2706,13 +2709,13 @@
         <v>8787</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2730,13 @@
         <v>11800</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -2742,13 +2745,13 @@
         <v>14320</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>41</v>
@@ -2757,13 +2760,13 @@
         <v>26120</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2834,13 @@
         <v>2598</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H34" s="7">
         <v>25</v>
@@ -2846,13 +2849,13 @@
         <v>14514</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="M34" s="7">
         <v>31</v>
@@ -2861,13 +2864,13 @@
         <v>17112</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2885,13 @@
         <v>36835</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>158</v>
@@ -2897,13 +2900,13 @@
         <v>85786</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M35" s="7">
         <v>213</v>
@@ -2912,13 +2915,13 @@
         <v>122621</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2936,13 @@
         <v>709</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -2948,10 +2951,10 @@
         <v>4758</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>218</v>
@@ -3041,7 +3044,7 @@
         <v>232</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>53</v>
+        <v>233</v>
       </c>
       <c r="H38" s="7">
         <v>37</v>
@@ -3050,13 +3053,13 @@
         <v>22410</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>74</v>
@@ -3065,13 +3068,13 @@
         <v>47683</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,7 +3130,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5409A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E6CE0E-AFC9-48D6-9326-B0E52DAB4CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{394D208E-6126-4BFD-BF16-0E4DAFABF124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{110BAA39-2C0C-4DC1-8014-1C32BAEA760B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06A8ED69-2FD3-412F-9E65-F9825AA93FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No soy capaz de usarlo</t>
@@ -146,7 +146,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>10,37%</t>
@@ -272,7 +272,7 @@
     <t>21,32%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>2,81%</t>
@@ -401,7 +401,7 @@
     <t>30,48%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -1170,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B912DDDD-EB5C-4180-8F8B-3CCEC7062C0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BAA71A-E8E1-4822-BDEF-4D0C45872C17}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5409A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{394D208E-6126-4BFD-BF16-0E4DAFABF124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F158D37-9C0B-494D-B1FE-FAF58A9C0FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06A8ED69-2FD3-412F-9E65-F9825AA93FD8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F09F31E-85F9-4679-8277-FD72023A982C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="240">
   <si>
     <t>Población según si necesita sonda u otros dispositivos y es capaz de utilizarlos en 2023 (Tasa respuesta: 4,28%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>46,46%</t>
+    <t>59,19%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,349 +89,346 @@
     <t>4,79%</t>
   </si>
   <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>No utilizo sonda u otros dispositivos</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>Sí, por otro</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>Sí, con ayuda</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>Sí, por sí solo/a</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>No utilizo sonda u otros dispositivos</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>Sí, por otro</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>Sí, con ayuda</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>Sí, por sí solo/a</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
     <t>64,68%</t>
   </si>
   <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
   </si>
   <si>
     <t>66,88%</t>
@@ -446,16 +443,16 @@
     <t>66,05%</t>
   </si>
   <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>20,8%</t>
+    <t>17,11%</t>
   </si>
   <si>
     <t>4,16%</t>
@@ -464,7 +461,7 @@
     <t>1,53%</t>
   </si>
   <si>
-    <t>7,55%</t>
+    <t>7,68%</t>
   </si>
   <si>
     <t>7,12%</t>
@@ -476,19 +473,16 @@
     <t>4,42%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
+    <t>11,64%</t>
   </si>
   <si>
     <t>31,28%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
   </si>
   <si>
     <t>6,77%</t>
@@ -503,10 +497,10 @@
     <t>16,06%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -521,19 +515,19 @@
     <t>5,8%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>41,2%</t>
@@ -548,19 +542,19 @@
     <t>54,27%</t>
   </si>
   <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
   </si>
   <si>
     <t>50,51%</t>
   </si>
   <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
   </si>
   <si>
     <t>5,16%</t>
@@ -569,43 +563,40 @@
     <t>3,48%</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
     <t>21,93%</t>
   </si>
   <si>
     <t>12,22%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
+    <t>22,15%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>5,79%</t>
   </si>
   <si>
     <t>49,45%</t>
@@ -620,103 +611,112 @@
     <t>24,23%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>6,16%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>5,37%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>50,53%</t>
   </si>
   <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
   </si>
   <si>
     <t>57,36%</t>
   </si>
   <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
   </si>
   <si>
     <t>55,12%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,89%</t>
+    <t>4,85%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>6,92%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>10,62%</t>
+    <t>10,69%</t>
   </si>
   <si>
     <t>20,2%</t>
@@ -725,37 +725,34 @@
     <t>13,29%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>25,97%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1170,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BAA71A-E8E1-4822-BDEF-4D0C45872C17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDD5802-9199-4C2B-9360-B8FE7E57C2C4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1967,7 +1964,7 @@
         <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -1976,13 +1973,13 @@
         <v>17824</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -1991,13 +1988,13 @@
         <v>24312</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,7 +2015,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -2027,13 +2024,13 @@
         <v>2077</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -2042,13 +2039,13 @@
         <v>2077</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2060,13 @@
         <v>4247</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -2078,13 +2075,13 @@
         <v>7384</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -2093,13 +2090,13 @@
         <v>11631</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2111,13 @@
         <v>6427</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2129,13 +2126,13 @@
         <v>3872</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -2144,13 +2141,13 @@
         <v>10299</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,7 +2203,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2224,7 +2221,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -2233,13 +2230,13 @@
         <v>5529</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -2248,13 +2245,13 @@
         <v>5529</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,13 +2266,13 @@
         <v>11348</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -2284,13 +2281,13 @@
         <v>19228</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -2299,13 +2296,13 @@
         <v>30576</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2317,13 @@
         <v>709</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2341,7 +2338,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2350,13 +2347,13 @@
         <v>709</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,7 +2374,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2386,13 +2383,13 @@
         <v>2047</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2401,13 +2398,13 @@
         <v>2047</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2419,13 @@
         <v>5487</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2437,13 +2434,13 @@
         <v>1948</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2452,13 +2449,13 @@
         <v>7435</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,7 +2511,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2526,13 +2523,13 @@
         <v>666</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -2541,13 +2538,13 @@
         <v>3427</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -2556,13 +2553,13 @@
         <v>4093</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2574,13 @@
         <v>9833</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>52</v>
@@ -2592,13 +2589,13 @@
         <v>32075</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -2607,13 +2604,13 @@
         <v>41908</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,7 +2631,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2643,13 +2640,13 @@
         <v>2059</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2658,13 +2655,13 @@
         <v>2059</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,13 +2676,13 @@
         <v>1565</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -2694,13 +2691,13 @@
         <v>7222</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -2709,13 +2706,13 @@
         <v>8787</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2727,13 @@
         <v>11800</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -2745,13 +2742,13 @@
         <v>14320</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M32" s="7">
         <v>41</v>
@@ -2760,13 +2757,13 @@
         <v>26120</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,13 +2831,13 @@
         <v>2598</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>25</v>
@@ -2849,13 +2846,13 @@
         <v>14514</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="M34" s="7">
         <v>31</v>
@@ -2864,13 +2861,13 @@
         <v>17112</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2882,13 @@
         <v>36835</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>158</v>
@@ -2900,13 +2897,13 @@
         <v>85786</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M35" s="7">
         <v>213</v>
@@ -2915,13 +2912,13 @@
         <v>122621</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2933,13 @@
         <v>709</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -2951,10 +2948,10 @@
         <v>4758</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>218</v>
@@ -3044,7 +3041,7 @@
         <v>232</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>233</v>
+        <v>53</v>
       </c>
       <c r="H38" s="7">
         <v>37</v>
@@ -3053,13 +3050,13 @@
         <v>22410</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>74</v>
@@ -3068,13 +3065,13 @@
         <v>47683</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,7 +3127,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5409A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F158D37-9C0B-494D-B1FE-FAF58A9C0FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2D12853-5CCC-4B8B-8049-12F1BE9BE14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F09F31E-85F9-4679-8277-FD72023A982C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4C6DA0DE-EE79-45BE-8578-1D948D5B8AD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="214">
   <si>
     <t>Población según si necesita sonda u otros dispositivos y es capaz de utilizarlos en 2023 (Tasa respuesta: 4,28%)</t>
   </si>
@@ -65,694 +65,616 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No soy capaz de usarlo</t>
   </si>
   <si>
-    <t>10,42%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>No utilizo sonda u otros dispositivos</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>Sí, por otro</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>59,19%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>No utilizo sonda u otros dispositivos</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>Sí, por otro</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>Sí, con ayuda</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
   </si>
   <si>
     <t>Sí, por sí solo/a</t>
   </si>
   <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1167,8 +1089,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDD5802-9199-4C2B-9360-B8FE7E57C2C4}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2FDF7A-4106-46B8-B2B3-15B220D31733}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1285,10 +1207,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>350</v>
+        <v>1373</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1300,91 +1222,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2049</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>350</v>
+        <v>3422</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>3006</v>
+        <v>8625</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7">
-        <v>3414</v>
+        <v>15383</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="N5" s="7">
-        <v>6420</v>
+        <v>24008</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1393,145 +1315,145 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1522</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>537</v>
+        <v>4735</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>537</v>
+        <v>6257</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1405</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1989</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>3394</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1540,159 +1462,159 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7">
-        <v>3356</v>
+        <v>12926</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="I9" s="7">
-        <v>3951</v>
+        <v>24744</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="N9" s="7">
-        <v>7307</v>
+        <v>37670</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1086</v>
+        <v>472</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>2184</v>
+        <v>3113</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>3270</v>
+        <v>3585</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>6160</v>
+        <v>6026</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="7">
+        <v>36</v>
+      </c>
+      <c r="I11" s="7">
+        <v>16270</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="7">
         <v>46</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="7">
-        <v>30</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13245</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="7">
-        <v>41</v>
-      </c>
       <c r="N11" s="7">
-        <v>19405</v>
+        <v>22296</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1701,145 +1623,145 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>623</v>
+        <v>1802</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>623</v>
+        <v>1801</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>1667</v>
+        <v>3682</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>4903</v>
+        <v>6214</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>6570</v>
+        <v>9896</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>1558</v>
+        <v>5469</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>2270</v>
+        <v>3355</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>3829</v>
+        <v>8823</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1848,306 +1770,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7">
-        <v>10472</v>
+        <v>15648</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I15" s="7">
-        <v>23225</v>
+        <v>30753</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="N15" s="7">
-        <v>33697</v>
+        <v>46401</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>3374</v>
+        <v>4903</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>3870</v>
+        <v>4903</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>6488</v>
+        <v>10665</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>17824</v>
+        <v>17300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
       </c>
       <c r="N17" s="7">
-        <v>24312</v>
+        <v>27965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>601</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>0</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2077</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>2077</v>
+        <v>601</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>4247</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>7384</v>
+        <v>1710</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>11631</v>
+        <v>1710</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>6427</v>
+        <v>5121</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>3872</v>
+        <v>1701</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N20" s="7">
-        <v>10299</v>
+        <v>6822</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,306 +2078,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21" s="7">
-        <v>17658</v>
+        <v>16387</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="I21" s="7">
-        <v>34531</v>
+        <v>25614</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="N21" s="7">
-        <v>52189</v>
+        <v>42001</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>5529</v>
+        <v>2965</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>5529</v>
+        <v>3598</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="7">
-        <v>11348</v>
+        <v>9014</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I23" s="7">
-        <v>19228</v>
+        <v>28806</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N23" s="7">
-        <v>30576</v>
+        <v>37820</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>709</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>1713</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" s="7">
-        <v>709</v>
+        <v>1713</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>1371</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>2047</v>
+        <v>5753</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N25" s="7">
-        <v>2047</v>
+        <v>7124</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D26" s="7">
-        <v>5487</v>
+        <v>11034</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I26" s="7">
-        <v>1948</v>
+        <v>11633</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="N26" s="7">
-        <v>7435</v>
+        <v>22667</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,306 +2386,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D27" s="7">
-        <v>17544</v>
+        <v>22051</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="I27" s="7">
-        <v>28751</v>
+        <v>50870</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="N27" s="7">
-        <v>46295</v>
+        <v>72921</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D28" s="7">
-        <v>666</v>
+        <v>2478</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I28" s="7">
-        <v>3427</v>
+        <v>13030</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="N28" s="7">
-        <v>4093</v>
+        <v>15508</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D29" s="7">
-        <v>9833</v>
+        <v>34330</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="I29" s="7">
-        <v>32075</v>
+        <v>77759</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="N29" s="7">
-        <v>41908</v>
+        <v>112089</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H30" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I30" s="7">
-        <v>2059</v>
+        <v>4102</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N30" s="7">
-        <v>2059</v>
+        <v>4703</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D31" s="7">
-        <v>1565</v>
+        <v>6575</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="H31" s="7">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I31" s="7">
-        <v>7222</v>
+        <v>18412</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M31" s="7">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N31" s="7">
-        <v>8787</v>
+        <v>24987</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D32" s="7">
-        <v>11800</v>
+        <v>23029</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="H32" s="7">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I32" s="7">
-        <v>14320</v>
+        <v>18678</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="M32" s="7">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="N32" s="7">
-        <v>26120</v>
+        <v>41706</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,370 +2694,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="D33" s="7">
-        <v>23864</v>
+        <v>67012</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
-        <v>93</v>
+        <v>263</v>
       </c>
       <c r="I33" s="7">
-        <v>59103</v>
+        <v>131981</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
-        <v>129</v>
+        <v>374</v>
       </c>
       <c r="N33" s="7">
-        <v>82967</v>
+        <v>198993</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>6</v>
-      </c>
-      <c r="D34" s="7">
-        <v>2598</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H34" s="7">
-        <v>25</v>
-      </c>
-      <c r="I34" s="7">
-        <v>14514</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M34" s="7">
-        <v>31</v>
-      </c>
-      <c r="N34" s="7">
-        <v>17112</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="7">
-        <v>55</v>
-      </c>
-      <c r="D35" s="7">
-        <v>36835</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H35" s="7">
-        <v>158</v>
-      </c>
-      <c r="I35" s="7">
-        <v>85786</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M35" s="7">
+      <c r="A34" t="s">
         <v>213</v>
       </c>
-      <c r="N35" s="7">
-        <v>122621</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7">
-        <v>709</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H36" s="7">
-        <v>8</v>
-      </c>
-      <c r="I36" s="7">
-        <v>4758</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M36" s="7">
-        <v>9</v>
-      </c>
-      <c r="N36" s="7">
-        <v>5467</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="7">
-        <v>12</v>
-      </c>
-      <c r="D37" s="7">
-        <v>7479</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H37" s="7">
-        <v>35</v>
-      </c>
-      <c r="I37" s="7">
-        <v>22092</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M37" s="7">
-        <v>47</v>
-      </c>
-      <c r="N37" s="7">
-        <v>29572</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="7">
-        <v>37</v>
-      </c>
-      <c r="D38" s="7">
-        <v>25273</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="7">
-        <v>37</v>
-      </c>
-      <c r="I38" s="7">
-        <v>22410</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M38" s="7">
-        <v>74</v>
-      </c>
-      <c r="N38" s="7">
-        <v>47683</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>111</v>
-      </c>
-      <c r="D39" s="7">
-        <v>72894</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="7">
-        <v>263</v>
-      </c>
-      <c r="I39" s="7">
-        <v>149561</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M39" s="7">
-        <v>374</v>
-      </c>
-      <c r="N39" s="7">
-        <v>222455</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>239</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
